--- a/datos/precios/Precio_Bolsa_Nacional_($kwh)_2014.xlsx
+++ b/datos/precios/Precio_Bolsa_Nacional_($kwh)_2014.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="135" windowWidth="16140" windowHeight="9990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14244" windowHeight="7512"/>
   </bookViews>
   <sheets>
     <sheet name="Precio_Bolsa_Nacional_($kwh).rd" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145620"/>
+  <calcPr calcId="152511"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
@@ -1211,7 +1211,7 @@
     <numFmt numFmtId="165" formatCode="[$-10409]#,##0;\-#,##0"/>
     <numFmt numFmtId="166" formatCode="[$-10409]#,##0.000;\-#,##0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1436,12 +1436,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1483,7 +1486,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1518,7 +1521,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1729,18 +1732,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA370"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V349" workbookViewId="0">
+      <selection activeCell="AA375" sqref="AA375"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="25" width="11.28515625" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" customWidth="1"/>
-    <col min="27" max="27" width="57.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="25" width="11.33203125" customWidth="1"/>
+    <col min="26" max="26" width="13.44140625" customWidth="1"/>
+    <col min="27" max="27" width="57.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="46.5" customHeight="1"/>
-    <row r="2" spans="1:27" ht="15">
+    <row r="1" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="8" t="s">
         <v>0</v>
@@ -1770,7 +1775,7 @@
       <c r="Y2" s="9"/>
       <c r="Z2" s="10"/>
     </row>
-    <row r="3" spans="1:27" ht="15">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1850,7 +1855,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="13.5">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -1934,7 +1939,7 @@
         <v>148.38003599999996</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="13.5">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -2018,7 +2023,7 @@
         <v>148.83819066666675</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="13.5">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -2102,7 +2107,7 @@
         <v>165.14382399999997</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="13.5">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
@@ -2186,7 +2191,7 @@
         <v>158.02802666666665</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="13.5">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -2270,7 +2275,7 @@
         <v>170.04258966666671</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="13.5">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -2354,7 +2359,7 @@
         <v>186.56615399999995</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="13.5">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -2438,7 +2443,7 @@
         <v>171.34560400000009</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="13.5">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
@@ -2522,7 +2527,7 @@
         <v>164.43264199999993</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="13.5">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -2606,7 +2611,7 @@
         <v>161.12289033333334</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="13.5">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
@@ -2690,7 +2695,7 @@
         <v>160.71428366666663</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="13.5">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
@@ -2774,7 +2779,7 @@
         <v>139.26653433333334</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="13.5">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
@@ -2858,7 +2863,7 @@
         <v>112.19183600000004</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="13.5">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
@@ -2942,7 +2947,7 @@
         <v>156.68600466666663</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="13.5">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
@@ -3026,7 +3031,7 @@
         <v>150.26214433333334</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="13.5">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>42</v>
       </c>
@@ -3110,7 +3115,7 @@
         <v>149.88137133333331</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="13.5">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -3194,7 +3199,7 @@
         <v>148.72032566666667</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="13.5">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
@@ -3278,7 +3283,7 @@
         <v>153.33629866666661</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="13.5">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
@@ -3362,7 +3367,7 @@
         <v>159.89197699999997</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="13.5">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
@@ -3446,7 +3451,7 @@
         <v>159.15172366666667</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="13.5">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>47</v>
       </c>
@@ -3530,7 +3535,7 @@
         <v>166.71041833333337</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="13.5">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>48</v>
       </c>
@@ -3614,7 +3619,7 @@
         <v>157.76116500000003</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="13.5">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
@@ -3698,7 +3703,7 @@
         <v>159.10240666666667</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="13.5">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
@@ -3782,7 +3787,7 @@
         <v>162.5823873333334</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="13.5">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>51</v>
       </c>
@@ -3866,7 +3871,7 @@
         <v>159.73000033333335</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="13.5">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
@@ -3950,7 +3955,7 @@
         <v>155.73043699999997</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="13.5">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>53</v>
       </c>
@@ -4034,7 +4039,7 @@
         <v>168.27636666666663</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="13.5">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>54</v>
       </c>
@@ -4118,7 +4123,7 @@
         <v>166.67639266666677</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="13.5">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>55</v>
       </c>
@@ -4202,7 +4207,7 @@
         <v>169.70304599999997</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="13.5">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>56</v>
       </c>
@@ -4286,7 +4291,7 @@
         <v>179.23702299999999</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="13.5">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>57</v>
       </c>
@@ -4370,7 +4375,7 @@
         <v>175.53386666666663</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="13.5">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>58</v>
       </c>
@@ -4454,7 +4459,7 @@
         <v>189.68205566666668</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="13.5">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>59</v>
       </c>
@@ -4538,7 +4543,7 @@
         <v>179.58932433333328</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="13.5">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>60</v>
       </c>
@@ -4622,7 +4627,7 @@
         <v>191.83001199999993</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="13.5">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>61</v>
       </c>
@@ -4706,7 +4711,7 @@
         <v>192.44026800000003</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="13.5">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>62</v>
       </c>
@@ -4790,7 +4795,7 @@
         <v>194.66749733333327</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="13.5">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>63</v>
       </c>
@@ -4874,7 +4879,7 @@
         <v>211.52345133333327</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="13.5">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>64</v>
       </c>
@@ -4958,7 +4963,7 @@
         <v>209.03489200000001</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="13.5">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>65</v>
       </c>
@@ -5042,7 +5047,7 @@
         <v>203.34561733333342</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="13.5">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>66</v>
       </c>
@@ -5126,7 +5131,7 @@
         <v>201.78303933333328</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="13.5">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>67</v>
       </c>
@@ -5210,7 +5215,7 @@
         <v>190.93429599999999</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="13.5">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>68</v>
       </c>
@@ -5294,7 +5299,7 @@
         <v>190.78051633333328</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="13.5">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>69</v>
       </c>
@@ -5378,7 +5383,7 @@
         <v>212.91474066666663</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="13.5">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>70</v>
       </c>
@@ -5462,7 +5467,7 @@
         <v>189.2679626666667</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="13.5">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>71</v>
       </c>
@@ -5546,7 +5551,7 @@
         <v>186.00180833333329</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="13.5">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>72</v>
       </c>
@@ -5630,7 +5635,7 @@
         <v>187.84714466666665</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="13.5">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>73</v>
       </c>
@@ -5714,7 +5719,7 @@
         <v>202.35127333333335</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="13.5">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>74</v>
       </c>
@@ -5798,7 +5803,7 @@
         <v>199.50149433333343</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="13.5">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>75</v>
       </c>
@@ -5882,7 +5887,7 @@
         <v>194.06727633333333</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="13.5">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>76</v>
       </c>
@@ -5966,7 +5971,7 @@
         <v>189.79730599999996</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="13.5">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>77</v>
       </c>
@@ -6050,7 +6055,7 @@
         <v>184.79109766666673</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="13.5">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>78</v>
       </c>
@@ -6134,7 +6139,7 @@
         <v>190.96443533333331</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="13.5">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>79</v>
       </c>
@@ -6218,7 +6223,7 @@
         <v>172.08409999999995</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="13.5">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>80</v>
       </c>
@@ -6302,7 +6307,7 @@
         <v>182.57451866666665</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="13.5">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>81</v>
       </c>
@@ -6386,7 +6391,7 @@
         <v>168.74537766666666</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="13.5">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>82</v>
       </c>
@@ -6470,7 +6475,7 @@
         <v>165.99456300000003</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="13.5">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>83</v>
       </c>
@@ -6554,7 +6559,7 @@
         <v>167.88014933333329</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="13.5">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>84</v>
       </c>
@@ -6638,7 +6643,7 @@
         <v>177.60279499999999</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="13.5">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>85</v>
       </c>
@@ -6722,7 +6727,7 @@
         <v>167.71857099999997</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="13.5">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>86</v>
       </c>
@@ -6806,7 +6811,7 @@
         <v>156.9895333333333</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="13.5">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>87</v>
       </c>
@@ -6890,7 +6895,7 @@
         <v>149.32370033333339</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="13.5">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>89</v>
       </c>
@@ -6974,7 +6979,7 @@
         <v>144.75253299999994</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="13.5">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>90</v>
       </c>
@@ -7058,7 +7063,7 @@
         <v>166.37441533333327</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="13.5">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>91</v>
       </c>
@@ -7142,7 +7147,7 @@
         <v>163.32136066666672</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="13.5">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>92</v>
       </c>
@@ -7226,7 +7231,7 @@
         <v>159.72435633333336</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="13.5">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>93</v>
       </c>
@@ -7310,7 +7315,7 @@
         <v>154.96803866666662</v>
       </c>
     </row>
-    <row r="69" spans="1:27" ht="13.5">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>94</v>
       </c>
@@ -7394,7 +7399,7 @@
         <v>145.30497166666666</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="13.5">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>95</v>
       </c>
@@ -7478,7 +7483,7 @@
         <v>142.84682466666663</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="13.5">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>96</v>
       </c>
@@ -7562,7 +7567,7 @@
         <v>134.88879833333328</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="13.5">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>97</v>
       </c>
@@ -7646,7 +7651,7 @@
         <v>135.60735199999996</v>
       </c>
     </row>
-    <row r="73" spans="1:27" ht="13.5">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>98</v>
       </c>
@@ -7730,7 +7735,7 @@
         <v>161.94616533333334</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="13.5">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>99</v>
       </c>
@@ -7814,7 +7819,7 @@
         <v>152.55583999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="13.5">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>100</v>
       </c>
@@ -7898,7 +7903,7 @@
         <v>144.47411733333337</v>
       </c>
     </row>
-    <row r="76" spans="1:27" ht="13.5">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>101</v>
       </c>
@@ -7982,7 +7987,7 @@
         <v>142.39992199999998</v>
       </c>
     </row>
-    <row r="77" spans="1:27" ht="13.5">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>102</v>
       </c>
@@ -8066,7 +8071,7 @@
         <v>148.9212053333334</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="13.5">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>103</v>
       </c>
@@ -8150,7 +8155,7 @@
         <v>128.24755966666663</v>
       </c>
     </row>
-    <row r="79" spans="1:27" ht="13.5">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>104</v>
       </c>
@@ -8234,7 +8239,7 @@
         <v>147.76468366666663</v>
       </c>
     </row>
-    <row r="80" spans="1:27" ht="13.5">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>105</v>
       </c>
@@ -8318,7 +8323,7 @@
         <v>138.95181099999996</v>
       </c>
     </row>
-    <row r="81" spans="1:27" ht="13.5">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>106</v>
       </c>
@@ -8402,7 +8407,7 @@
         <v>141.33545799999999</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="13.5">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>107</v>
       </c>
@@ -8486,7 +8491,7 @@
         <v>135.28799733333332</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="13.5">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>108</v>
       </c>
@@ -8570,7 +8575,7 @@
         <v>159.46937033333333</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="13.5">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>109</v>
       </c>
@@ -8654,7 +8659,7 @@
         <v>170.32902433333331</v>
       </c>
     </row>
-    <row r="85" spans="1:27" ht="13.5">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>110</v>
       </c>
@@ -8738,7 +8743,7 @@
         <v>179.31779733333335</v>
       </c>
     </row>
-    <row r="86" spans="1:27" ht="13.5">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>111</v>
       </c>
@@ -8822,7 +8827,7 @@
         <v>165.81998066666668</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="13.5">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>112</v>
       </c>
@@ -8906,7 +8911,7 @@
         <v>165.14070633333333</v>
       </c>
     </row>
-    <row r="88" spans="1:27" ht="13.5">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>113</v>
       </c>
@@ -8990,7 +8995,7 @@
         <v>177.42505366666668</v>
       </c>
     </row>
-    <row r="89" spans="1:27" ht="13.5">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>114</v>
       </c>
@@ -9074,7 +9079,7 @@
         <v>155.28395466666666</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="13.5">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>115</v>
       </c>
@@ -9158,7 +9163,7 @@
         <v>157.30414333333331</v>
       </c>
     </row>
-    <row r="91" spans="1:27" ht="13.5">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>116</v>
       </c>
@@ -9242,7 +9247,7 @@
         <v>138.62150666666662</v>
       </c>
     </row>
-    <row r="92" spans="1:27" ht="13.5">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>117</v>
       </c>
@@ -9326,7 +9331,7 @@
         <v>139.69982433333337</v>
       </c>
     </row>
-    <row r="93" spans="1:27" ht="13.5">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>118</v>
       </c>
@@ -9410,7 +9415,7 @@
         <v>142.98739300000003</v>
       </c>
     </row>
-    <row r="94" spans="1:27" ht="13.5">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>119</v>
       </c>
@@ -9494,7 +9499,7 @@
         <v>150.90990466666665</v>
       </c>
     </row>
-    <row r="95" spans="1:27" ht="13.5">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>121</v>
       </c>
@@ -9578,7 +9583,7 @@
         <v>183.49645233333331</v>
       </c>
     </row>
-    <row r="96" spans="1:27" ht="13.5">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>122</v>
       </c>
@@ -9662,7 +9667,7 @@
         <v>216.30759799999998</v>
       </c>
     </row>
-    <row r="97" spans="1:27" ht="13.5">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>123</v>
       </c>
@@ -9746,7 +9751,7 @@
         <v>285.72610100000014</v>
       </c>
     </row>
-    <row r="98" spans="1:27" ht="13.5">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>124</v>
       </c>
@@ -9830,7 +9835,7 @@
         <v>241.39850600000011</v>
       </c>
     </row>
-    <row r="99" spans="1:27" ht="13.5">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>125</v>
       </c>
@@ -9914,7 +9919,7 @@
         <v>217.64512099999999</v>
       </c>
     </row>
-    <row r="100" spans="1:27" ht="13.5">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>126</v>
       </c>
@@ -9998,7 +10003,7 @@
         <v>318.5290710000001</v>
       </c>
     </row>
-    <row r="101" spans="1:27" ht="13.5">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>127</v>
       </c>
@@ -10082,7 +10087,7 @@
         <v>318.61011066666669</v>
       </c>
     </row>
-    <row r="102" spans="1:27" ht="13.5">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>128</v>
       </c>
@@ -10166,7 +10171,7 @@
         <v>334.40986800000002</v>
       </c>
     </row>
-    <row r="103" spans="1:27" ht="13.5">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>129</v>
       </c>
@@ -10250,7 +10255,7 @@
         <v>363.24689599999988</v>
       </c>
     </row>
-    <row r="104" spans="1:27" ht="13.5">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>130</v>
       </c>
@@ -10334,7 +10339,7 @@
         <v>334.42546500000009</v>
       </c>
     </row>
-    <row r="105" spans="1:27" ht="13.5">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>131</v>
       </c>
@@ -10418,7 +10423,7 @@
         <v>323.16124300000024</v>
       </c>
     </row>
-    <row r="106" spans="1:27" ht="13.5">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>132</v>
       </c>
@@ -10502,7 +10507,7 @@
         <v>335.77054100000015</v>
       </c>
     </row>
-    <row r="107" spans="1:27" ht="13.5">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>133</v>
       </c>
@@ -10586,7 +10591,7 @@
         <v>355.73467833333342</v>
       </c>
     </row>
-    <row r="108" spans="1:27" ht="13.5">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>134</v>
       </c>
@@ -10670,7 +10675,7 @@
         <v>401.14053933333349</v>
       </c>
     </row>
-    <row r="109" spans="1:27" ht="13.5">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>135</v>
       </c>
@@ -10754,7 +10759,7 @@
         <v>425.59149600000018</v>
       </c>
     </row>
-    <row r="110" spans="1:27" ht="13.5">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>136</v>
       </c>
@@ -10838,7 +10843,7 @@
         <v>459.43827299999981</v>
       </c>
     </row>
-    <row r="111" spans="1:27" ht="13.5">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>137</v>
       </c>
@@ -10922,7 +10927,7 @@
         <v>450.68323533333336</v>
       </c>
     </row>
-    <row r="112" spans="1:27" ht="13.5">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>138</v>
       </c>
@@ -11006,7 +11011,7 @@
         <v>426.53788600000001</v>
       </c>
     </row>
-    <row r="113" spans="1:27" ht="13.5">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>139</v>
       </c>
@@ -11090,7 +11095,7 @@
         <v>429.95455266666664</v>
       </c>
     </row>
-    <row r="114" spans="1:27" ht="13.5">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>140</v>
       </c>
@@ -11174,7 +11179,7 @@
         <v>467.0920113333334</v>
       </c>
     </row>
-    <row r="115" spans="1:27" ht="13.5">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>141</v>
       </c>
@@ -11258,7 +11263,7 @@
         <v>469.04621933333334</v>
       </c>
     </row>
-    <row r="116" spans="1:27" ht="13.5">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>142</v>
       </c>
@@ -11342,7 +11347,7 @@
         <v>454.16356966666666</v>
       </c>
     </row>
-    <row r="117" spans="1:27" ht="13.5">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>143</v>
       </c>
@@ -11426,7 +11431,7 @@
         <v>471.45816199999996</v>
       </c>
     </row>
-    <row r="118" spans="1:27" ht="13.5">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>144</v>
       </c>
@@ -11510,7 +11515,7 @@
         <v>478.87495800000005</v>
       </c>
     </row>
-    <row r="119" spans="1:27" ht="13.5">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>145</v>
       </c>
@@ -11594,7 +11599,7 @@
         <v>474.90986033333348</v>
       </c>
     </row>
-    <row r="120" spans="1:27" ht="13.5">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>146</v>
       </c>
@@ -11678,7 +11683,7 @@
         <v>459.41724100000005</v>
       </c>
     </row>
-    <row r="121" spans="1:27" ht="13.5">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>147</v>
       </c>
@@ -11762,7 +11767,7 @@
         <v>445.99880266666679</v>
       </c>
     </row>
-    <row r="122" spans="1:27" ht="13.5">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>148</v>
       </c>
@@ -11846,7 +11851,7 @@
         <v>457.48713600000013</v>
       </c>
     </row>
-    <row r="123" spans="1:27" ht="13.5">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>149</v>
       </c>
@@ -11930,7 +11935,7 @@
         <v>461.2427889999999</v>
       </c>
     </row>
-    <row r="124" spans="1:27" ht="13.5">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>150</v>
       </c>
@@ -12014,7 +12019,7 @@
         <v>410.0950519999999</v>
       </c>
     </row>
-    <row r="125" spans="1:27" ht="13.5">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>151</v>
       </c>
@@ -12098,7 +12103,7 @@
         <v>447.59791699999988</v>
       </c>
     </row>
-    <row r="126" spans="1:27" ht="13.5">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>152</v>
       </c>
@@ -12182,7 +12187,7 @@
         <v>422.74233500000008</v>
       </c>
     </row>
-    <row r="127" spans="1:27" ht="13.5">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>153</v>
       </c>
@@ -12266,7 +12271,7 @@
         <v>428.58958166666656</v>
       </c>
     </row>
-    <row r="128" spans="1:27" ht="13.5">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>154</v>
       </c>
@@ -12350,7 +12355,7 @@
         <v>389.27057966666672</v>
       </c>
     </row>
-    <row r="129" spans="1:27" ht="13.5">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>155</v>
       </c>
@@ -12434,7 +12439,7 @@
         <v>431.2542553333335</v>
       </c>
     </row>
-    <row r="130" spans="1:27" ht="13.5">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>156</v>
       </c>
@@ -12518,7 +12523,7 @@
         <v>409.39991400000002</v>
       </c>
     </row>
-    <row r="131" spans="1:27" ht="13.5">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>157</v>
       </c>
@@ -12602,7 +12607,7 @@
         <v>419.51846399999994</v>
       </c>
     </row>
-    <row r="132" spans="1:27" ht="13.5">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>158</v>
       </c>
@@ -12686,7 +12691,7 @@
         <v>425.76533766666671</v>
       </c>
     </row>
-    <row r="133" spans="1:27" ht="13.5">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>159</v>
       </c>
@@ -12770,7 +12775,7 @@
         <v>453.92906266666654</v>
       </c>
     </row>
-    <row r="134" spans="1:27" ht="13.5">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>160</v>
       </c>
@@ -12854,7 +12859,7 @@
         <v>355.86559933333342</v>
       </c>
     </row>
-    <row r="135" spans="1:27" ht="13.5">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>161</v>
       </c>
@@ -12938,7 +12943,7 @@
         <v>407.88741166666665</v>
       </c>
     </row>
-    <row r="136" spans="1:27" ht="13.5">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>162</v>
       </c>
@@ -13022,7 +13027,7 @@
         <v>326.3946196666667</v>
       </c>
     </row>
-    <row r="137" spans="1:27" ht="13.5">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>163</v>
       </c>
@@ -13106,7 +13111,7 @@
         <v>309.34448133333336</v>
       </c>
     </row>
-    <row r="138" spans="1:27" ht="13.5">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>164</v>
       </c>
@@ -13190,7 +13195,7 @@
         <v>287.22374766666661</v>
       </c>
     </row>
-    <row r="139" spans="1:27" ht="13.5">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>165</v>
       </c>
@@ -13274,7 +13279,7 @@
         <v>339.53645399999999</v>
       </c>
     </row>
-    <row r="140" spans="1:27" ht="13.5">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>166</v>
       </c>
@@ -13358,7 +13363,7 @@
         <v>277.55870800000019</v>
       </c>
     </row>
-    <row r="141" spans="1:27" ht="13.5">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>167</v>
       </c>
@@ -13442,7 +13447,7 @@
         <v>258.13616899999994</v>
       </c>
     </row>
-    <row r="142" spans="1:27" ht="13.5">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>168</v>
       </c>
@@ -13526,7 +13531,7 @@
         <v>330.11528133333326</v>
       </c>
     </row>
-    <row r="143" spans="1:27" ht="13.5">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>169</v>
       </c>
@@ -13610,7 +13615,7 @@
         <v>325.35198066666675</v>
       </c>
     </row>
-    <row r="144" spans="1:27" ht="13.5">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>170</v>
       </c>
@@ -13694,7 +13699,7 @@
         <v>352.86307066666672</v>
       </c>
     </row>
-    <row r="145" spans="1:27" ht="13.5">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>171</v>
       </c>
@@ -13778,7 +13783,7 @@
         <v>369.24342533333333</v>
       </c>
     </row>
-    <row r="146" spans="1:27" ht="13.5">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>172</v>
       </c>
@@ -13862,7 +13867,7 @@
         <v>374.88717533333335</v>
       </c>
     </row>
-    <row r="147" spans="1:27" ht="13.5">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>173</v>
       </c>
@@ -13946,7 +13951,7 @@
         <v>375.27259199999986</v>
       </c>
     </row>
-    <row r="148" spans="1:27" ht="13.5">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>174</v>
       </c>
@@ -14030,7 +14035,7 @@
         <v>381.18590033333345</v>
       </c>
     </row>
-    <row r="149" spans="1:27" ht="13.5">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>175</v>
       </c>
@@ -14114,7 +14119,7 @@
         <v>386.16842533333335</v>
       </c>
     </row>
-    <row r="150" spans="1:27" ht="13.5">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>176</v>
       </c>
@@ -14198,7 +14203,7 @@
         <v>383.40598033333345</v>
       </c>
     </row>
-    <row r="151" spans="1:27" ht="13.5">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>177</v>
       </c>
@@ -14282,7 +14287,7 @@
         <v>403.17099699999994</v>
       </c>
     </row>
-    <row r="152" spans="1:27" ht="13.5">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>178</v>
       </c>
@@ -14366,7 +14371,7 @@
         <v>444.32647766666673</v>
       </c>
     </row>
-    <row r="153" spans="1:27" ht="13.5">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>179</v>
       </c>
@@ -14450,7 +14455,7 @@
         <v>462.67873766666668</v>
       </c>
     </row>
-    <row r="154" spans="1:27" ht="13.5">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>180</v>
       </c>
@@ -14534,7 +14539,7 @@
         <v>452.56914166666661</v>
       </c>
     </row>
-    <row r="155" spans="1:27" ht="13.5">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>181</v>
       </c>
@@ -14618,7 +14623,7 @@
         <v>421.5177933333332</v>
       </c>
     </row>
-    <row r="156" spans="1:27" ht="13.5">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>182</v>
       </c>
@@ -14702,7 +14707,7 @@
         <v>371.18123966666667</v>
       </c>
     </row>
-    <row r="157" spans="1:27" ht="13.5">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>183</v>
       </c>
@@ -14786,7 +14791,7 @@
         <v>417.60724300000015</v>
       </c>
     </row>
-    <row r="158" spans="1:27" ht="13.5">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>184</v>
       </c>
@@ -14870,7 +14875,7 @@
         <v>437.13047166666666</v>
       </c>
     </row>
-    <row r="159" spans="1:27" ht="13.5">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>185</v>
       </c>
@@ -14954,7 +14959,7 @@
         <v>436.95095599999996</v>
       </c>
     </row>
-    <row r="160" spans="1:27" ht="13.5">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>186</v>
       </c>
@@ -15038,7 +15043,7 @@
         <v>473.16211799999996</v>
       </c>
     </row>
-    <row r="161" spans="1:27" ht="13.5">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>187</v>
       </c>
@@ -15122,7 +15127,7 @@
         <v>473.04076566666669</v>
       </c>
     </row>
-    <row r="162" spans="1:27" ht="13.5">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>188</v>
       </c>
@@ -15206,7 +15211,7 @@
         <v>466.54355733333318</v>
       </c>
     </row>
-    <row r="163" spans="1:27" ht="13.5">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>189</v>
       </c>
@@ -15290,7 +15295,7 @@
         <v>385.21304833333335</v>
       </c>
     </row>
-    <row r="164" spans="1:27" ht="13.5">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>190</v>
       </c>
@@ -15374,7 +15379,7 @@
         <v>364.51335166666667</v>
       </c>
     </row>
-    <row r="165" spans="1:27" ht="13.5">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>191</v>
       </c>
@@ -15458,7 +15463,7 @@
         <v>426.82564233333329</v>
       </c>
     </row>
-    <row r="166" spans="1:27" ht="13.5">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>192</v>
       </c>
@@ -15542,7 +15547,7 @@
         <v>416.227645</v>
       </c>
     </row>
-    <row r="167" spans="1:27" ht="13.5">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>193</v>
       </c>
@@ -15626,7 +15631,7 @@
         <v>396.87933166666653</v>
       </c>
     </row>
-    <row r="168" spans="1:27" ht="13.5">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>194</v>
       </c>
@@ -15710,7 +15715,7 @@
         <v>390.59853599999997</v>
       </c>
     </row>
-    <row r="169" spans="1:27" ht="13.5">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>195</v>
       </c>
@@ -15794,7 +15799,7 @@
         <v>303.64970066666683</v>
       </c>
     </row>
-    <row r="170" spans="1:27" ht="13.5">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>196</v>
       </c>
@@ -15878,7 +15883,7 @@
         <v>328.27516666666662</v>
       </c>
     </row>
-    <row r="171" spans="1:27" ht="13.5">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>197</v>
       </c>
@@ -15962,7 +15967,7 @@
         <v>293.74280333333343</v>
       </c>
     </row>
-    <row r="172" spans="1:27" ht="13.5">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>198</v>
       </c>
@@ -16046,7 +16051,7 @@
         <v>335.62052733333331</v>
       </c>
     </row>
-    <row r="173" spans="1:27" ht="13.5">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>199</v>
       </c>
@@ -16130,7 +16135,7 @@
         <v>361.88508366666656</v>
       </c>
     </row>
-    <row r="174" spans="1:27" ht="13.5">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>200</v>
       </c>
@@ -16214,7 +16219,7 @@
         <v>371.17492800000014</v>
       </c>
     </row>
-    <row r="175" spans="1:27" ht="13.5">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>201</v>
       </c>
@@ -16298,7 +16303,7 @@
         <v>322.66283600000003</v>
       </c>
     </row>
-    <row r="176" spans="1:27" ht="13.5">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>202</v>
       </c>
@@ -16382,7 +16387,7 @@
         <v>219.84994900000007</v>
       </c>
     </row>
-    <row r="177" spans="1:27" ht="13.5">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>203</v>
       </c>
@@ -16466,7 +16471,7 @@
         <v>225.39938300000006</v>
       </c>
     </row>
-    <row r="178" spans="1:27" ht="13.5">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>204</v>
       </c>
@@ -16550,7 +16555,7 @@
         <v>355.40202966666675</v>
       </c>
     </row>
-    <row r="179" spans="1:27" ht="13.5">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>205</v>
       </c>
@@ -16634,7 +16639,7 @@
         <v>305.03398499999997</v>
       </c>
     </row>
-    <row r="180" spans="1:27" ht="13.5">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>206</v>
       </c>
@@ -16718,7 +16723,7 @@
         <v>246.55644900000016</v>
       </c>
     </row>
-    <row r="181" spans="1:27" ht="13.5">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>207</v>
       </c>
@@ -16802,7 +16807,7 @@
         <v>125.12607300000001</v>
       </c>
     </row>
-    <row r="182" spans="1:27" ht="13.5">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>208</v>
       </c>
@@ -16886,7 +16891,7 @@
         <v>125.50477200000006</v>
       </c>
     </row>
-    <row r="183" spans="1:27" ht="13.5">
+    <row r="183" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>209</v>
       </c>
@@ -16970,7 +16975,7 @@
         <v>123.85007066666662</v>
       </c>
     </row>
-    <row r="184" spans="1:27" ht="13.5">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>210</v>
       </c>
@@ -17054,7 +17059,7 @@
         <v>125.01936666666666</v>
       </c>
     </row>
-    <row r="185" spans="1:27" ht="13.5">
+    <row r="185" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>211</v>
       </c>
@@ -17138,7 +17143,7 @@
         <v>188.57788900000006</v>
       </c>
     </row>
-    <row r="186" spans="1:27" ht="13.5">
+    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>212</v>
       </c>
@@ -17222,7 +17227,7 @@
         <v>151.72786033333327</v>
       </c>
     </row>
-    <row r="187" spans="1:27" ht="13.5">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>213</v>
       </c>
@@ -17306,7 +17311,7 @@
         <v>190.80726133333337</v>
       </c>
     </row>
-    <row r="188" spans="1:27" ht="13.5">
+    <row r="188" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>214</v>
       </c>
@@ -17390,7 +17395,7 @@
         <v>159.66981100000007</v>
       </c>
     </row>
-    <row r="189" spans="1:27" ht="13.5">
+    <row r="189" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>215</v>
       </c>
@@ -17474,7 +17479,7 @@
         <v>146.46387433333337</v>
       </c>
     </row>
-    <row r="190" spans="1:27" ht="13.5">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>216</v>
       </c>
@@ -17558,7 +17563,7 @@
         <v>147.98939900000008</v>
       </c>
     </row>
-    <row r="191" spans="1:27" ht="13.5">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>217</v>
       </c>
@@ -17642,7 +17647,7 @@
         <v>197.51897099999996</v>
       </c>
     </row>
-    <row r="192" spans="1:27" ht="13.5">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>218</v>
       </c>
@@ -17726,7 +17731,7 @@
         <v>270.39976699999994</v>
       </c>
     </row>
-    <row r="193" spans="1:27" ht="13.5">
+    <row r="193" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>219</v>
       </c>
@@ -17810,7 +17815,7 @@
         <v>177.1071896666667</v>
       </c>
     </row>
-    <row r="194" spans="1:27" ht="13.5">
+    <row r="194" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>220</v>
       </c>
@@ -17894,7 +17899,7 @@
         <v>155.9935473333334</v>
       </c>
     </row>
-    <row r="195" spans="1:27" ht="13.5">
+    <row r="195" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>221</v>
       </c>
@@ -17978,7 +17983,7 @@
         <v>148.62689833333334</v>
       </c>
     </row>
-    <row r="196" spans="1:27" ht="13.5">
+    <row r="196" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>222</v>
       </c>
@@ -18062,7 +18067,7 @@
         <v>156.21451166666665</v>
       </c>
     </row>
-    <row r="197" spans="1:27" ht="13.5">
+    <row r="197" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>223</v>
       </c>
@@ -18146,7 +18151,7 @@
         <v>152.39014333333338</v>
       </c>
     </row>
-    <row r="198" spans="1:27" ht="13.5">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>224</v>
       </c>
@@ -18230,7 +18235,7 @@
         <v>142.74229433333338</v>
       </c>
     </row>
-    <row r="199" spans="1:27" ht="13.5">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>225</v>
       </c>
@@ -18314,7 +18319,7 @@
         <v>137.76591833333336</v>
       </c>
     </row>
-    <row r="200" spans="1:27" ht="13.5">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>226</v>
       </c>
@@ -18398,7 +18403,7 @@
         <v>125.68012300000005</v>
       </c>
     </row>
-    <row r="201" spans="1:27" ht="13.5">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>227</v>
       </c>
@@ -18482,7 +18487,7 @@
         <v>123.73791633333333</v>
       </c>
     </row>
-    <row r="202" spans="1:27" ht="13.5">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>228</v>
       </c>
@@ -18566,7 +18571,7 @@
         <v>128.50879499999999</v>
       </c>
     </row>
-    <row r="203" spans="1:27" ht="13.5">
+    <row r="203" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>229</v>
       </c>
@@ -18650,7 +18655,7 @@
         <v>159.88920299999998</v>
       </c>
     </row>
-    <row r="204" spans="1:27" ht="13.5">
+    <row r="204" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>230</v>
       </c>
@@ -18734,7 +18739,7 @@
         <v>147.58873433333329</v>
       </c>
     </row>
-    <row r="205" spans="1:27" ht="13.5">
+    <row r="205" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>231</v>
       </c>
@@ -18818,7 +18823,7 @@
         <v>155.80857899999998</v>
       </c>
     </row>
-    <row r="206" spans="1:27" ht="13.5">
+    <row r="206" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>232</v>
       </c>
@@ -18902,7 +18907,7 @@
         <v>175.34261966666665</v>
       </c>
     </row>
-    <row r="207" spans="1:27" ht="13.5">
+    <row r="207" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>233</v>
       </c>
@@ -18986,7 +18991,7 @@
         <v>187.22564366666674</v>
       </c>
     </row>
-    <row r="208" spans="1:27" ht="13.5">
+    <row r="208" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>234</v>
       </c>
@@ -19070,7 +19075,7 @@
         <v>175.54262866666667</v>
       </c>
     </row>
-    <row r="209" spans="1:27" ht="13.5">
+    <row r="209" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>235</v>
       </c>
@@ -19154,7 +19159,7 @@
         <v>179.85348266666665</v>
       </c>
     </row>
-    <row r="210" spans="1:27" ht="13.5">
+    <row r="210" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>236</v>
       </c>
@@ -19238,7 +19243,7 @@
         <v>167.23109933333333</v>
       </c>
     </row>
-    <row r="211" spans="1:27" ht="13.5">
+    <row r="211" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>237</v>
       </c>
@@ -19322,7 +19327,7 @@
         <v>161.08416366666663</v>
       </c>
     </row>
-    <row r="212" spans="1:27" ht="13.5">
+    <row r="212" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>238</v>
       </c>
@@ -19406,7 +19411,7 @@
         <v>266.28281966666663</v>
       </c>
     </row>
-    <row r="213" spans="1:27" ht="13.5">
+    <row r="213" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>239</v>
       </c>
@@ -19490,7 +19495,7 @@
         <v>322.34184433333343</v>
       </c>
     </row>
-    <row r="214" spans="1:27" ht="13.5">
+    <row r="214" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>240</v>
       </c>
@@ -19574,7 +19579,7 @@
         <v>355.67359833333313</v>
       </c>
     </row>
-    <row r="215" spans="1:27" ht="13.5">
+    <row r="215" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>241</v>
       </c>
@@ -19658,7 +19663,7 @@
         <v>368.97202566666664</v>
       </c>
     </row>
-    <row r="216" spans="1:27" ht="13.5">
+    <row r="216" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>242</v>
       </c>
@@ -19742,7 +19747,7 @@
         <v>364.32500233333343</v>
       </c>
     </row>
-    <row r="217" spans="1:27" ht="13.5">
+    <row r="217" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>243</v>
       </c>
@@ -19826,7 +19831,7 @@
         <v>340.9900516666666</v>
       </c>
     </row>
-    <row r="218" spans="1:27" ht="13.5">
+    <row r="218" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>244</v>
       </c>
@@ -19910,7 +19915,7 @@
         <v>185.00879033333331</v>
       </c>
     </row>
-    <row r="219" spans="1:27" ht="13.5">
+    <row r="219" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>245</v>
       </c>
@@ -19994,7 +19999,7 @@
         <v>283.87808333333322</v>
       </c>
     </row>
-    <row r="220" spans="1:27" ht="13.5">
+    <row r="220" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>246</v>
       </c>
@@ -20078,7 +20083,7 @@
         <v>287.01120233333342</v>
       </c>
     </row>
-    <row r="221" spans="1:27" ht="13.5">
+    <row r="221" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>247</v>
       </c>
@@ -20162,7 +20167,7 @@
         <v>308.18041666666659</v>
       </c>
     </row>
-    <row r="222" spans="1:27" ht="13.5">
+    <row r="222" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>248</v>
       </c>
@@ -20246,7 +20251,7 @@
         <v>257.70395500000006</v>
       </c>
     </row>
-    <row r="223" spans="1:27" ht="13.5">
+    <row r="223" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>249</v>
       </c>
@@ -20330,7 +20335,7 @@
         <v>190.79947799999994</v>
       </c>
     </row>
-    <row r="224" spans="1:27" ht="13.5">
+    <row r="224" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>250</v>
       </c>
@@ -20414,7 +20419,7 @@
         <v>159.54541600000002</v>
       </c>
     </row>
-    <row r="225" spans="1:27" ht="13.5">
+    <row r="225" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>251</v>
       </c>
@@ -20498,7 +20503,7 @@
         <v>148.81652966666664</v>
       </c>
     </row>
-    <row r="226" spans="1:27" ht="13.5">
+    <row r="226" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>252</v>
       </c>
@@ -20582,7 +20587,7 @@
         <v>177.7536896666667</v>
       </c>
     </row>
-    <row r="227" spans="1:27" ht="13.5">
+    <row r="227" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>253</v>
       </c>
@@ -20666,7 +20671,7 @@
         <v>168.98352500000004</v>
       </c>
     </row>
-    <row r="228" spans="1:27" ht="13.5">
+    <row r="228" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>254</v>
       </c>
@@ -20750,7 +20755,7 @@
         <v>151.09408866666664</v>
       </c>
     </row>
-    <row r="229" spans="1:27" ht="13.5">
+    <row r="229" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>255</v>
       </c>
@@ -20834,7 +20839,7 @@
         <v>158.37714800000001</v>
       </c>
     </row>
-    <row r="230" spans="1:27" ht="13.5">
+    <row r="230" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>256</v>
       </c>
@@ -20918,7 +20923,7 @@
         <v>182.58052966666673</v>
       </c>
     </row>
-    <row r="231" spans="1:27" ht="13.5">
+    <row r="231" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>257</v>
       </c>
@@ -21002,7 +21007,7 @@
         <v>171.49443800000006</v>
       </c>
     </row>
-    <row r="232" spans="1:27" ht="13.5">
+    <row r="232" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>258</v>
       </c>
@@ -21086,7 +21091,7 @@
         <v>146.7804526666666</v>
       </c>
     </row>
-    <row r="233" spans="1:27" ht="13.5">
+    <row r="233" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>259</v>
       </c>
@@ -21170,7 +21175,7 @@
         <v>153.97553866666661</v>
       </c>
     </row>
-    <row r="234" spans="1:27" ht="13.5">
+    <row r="234" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>260</v>
       </c>
@@ -21254,7 +21259,7 @@
         <v>195.02608733333338</v>
       </c>
     </row>
-    <row r="235" spans="1:27" ht="13.5">
+    <row r="235" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>261</v>
       </c>
@@ -21338,7 +21343,7 @@
         <v>187.34458200000003</v>
       </c>
     </row>
-    <row r="236" spans="1:27" ht="13.5">
+    <row r="236" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>262</v>
       </c>
@@ -21422,7 +21427,7 @@
         <v>187.16805966666664</v>
       </c>
     </row>
-    <row r="237" spans="1:27" ht="13.5">
+    <row r="237" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>263</v>
       </c>
@@ -21506,7 +21511,7 @@
         <v>172.97917333333331</v>
       </c>
     </row>
-    <row r="238" spans="1:27" ht="13.5">
+    <row r="238" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>264</v>
       </c>
@@ -21590,7 +21595,7 @@
         <v>158.78290066666665</v>
       </c>
     </row>
-    <row r="239" spans="1:27" ht="13.5">
+    <row r="239" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>265</v>
       </c>
@@ -21674,7 +21679,7 @@
         <v>160.48186766666666</v>
       </c>
     </row>
-    <row r="240" spans="1:27" ht="13.5">
+    <row r="240" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>266</v>
       </c>
@@ -21758,7 +21763,7 @@
         <v>169.28188766666668</v>
       </c>
     </row>
-    <row r="241" spans="1:27" ht="13.5">
+    <row r="241" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>267</v>
       </c>
@@ -21842,7 +21847,7 @@
         <v>172.35434599999999</v>
       </c>
     </row>
-    <row r="242" spans="1:27" ht="13.5">
+    <row r="242" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>268</v>
       </c>
@@ -21926,7 +21931,7 @@
         <v>264.89638866666667</v>
       </c>
     </row>
-    <row r="243" spans="1:27" ht="13.5">
+    <row r="243" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>269</v>
       </c>
@@ -22010,7 +22015,7 @@
         <v>213.85796000000002</v>
       </c>
     </row>
-    <row r="244" spans="1:27" ht="13.5">
+    <row r="244" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>270</v>
       </c>
@@ -22094,7 +22099,7 @@
         <v>178.06031233333329</v>
       </c>
     </row>
-    <row r="245" spans="1:27" ht="13.5">
+    <row r="245" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>271</v>
       </c>
@@ -22178,7 +22183,7 @@
         <v>155.17201266666666</v>
       </c>
     </row>
-    <row r="246" spans="1:27" ht="13.5">
+    <row r="246" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>272</v>
       </c>
@@ -22262,7 +22267,7 @@
         <v>152.48171766666661</v>
       </c>
     </row>
-    <row r="247" spans="1:27" ht="13.5">
+    <row r="247" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>273</v>
       </c>
@@ -22346,7 +22351,7 @@
         <v>187.85034133333338</v>
       </c>
     </row>
-    <row r="248" spans="1:27" ht="13.5">
+    <row r="248" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>274</v>
       </c>
@@ -22430,7 +22435,7 @@
         <v>211.79144199999999</v>
       </c>
     </row>
-    <row r="249" spans="1:27" ht="13.5">
+    <row r="249" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>275</v>
       </c>
@@ -22514,7 +22519,7 @@
         <v>276.97900899999996</v>
       </c>
     </row>
-    <row r="250" spans="1:27" ht="13.5">
+    <row r="250" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>276</v>
       </c>
@@ -22598,7 +22603,7 @@
         <v>241.06394699999996</v>
       </c>
     </row>
-    <row r="251" spans="1:27" ht="13.5">
+    <row r="251" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>277</v>
       </c>
@@ -22682,7 +22687,7 @@
         <v>217.22873533333328</v>
       </c>
     </row>
-    <row r="252" spans="1:27" ht="13.5">
+    <row r="252" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>278</v>
       </c>
@@ -22766,7 +22771,7 @@
         <v>179.55636166666667</v>
       </c>
     </row>
-    <row r="253" spans="1:27" ht="13.5">
+    <row r="253" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>279</v>
       </c>
@@ -22850,7 +22855,7 @@
         <v>174.19480600000006</v>
       </c>
     </row>
-    <row r="254" spans="1:27" ht="13.5">
+    <row r="254" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>280</v>
       </c>
@@ -22934,7 +22939,7 @@
         <v>182.48617033333335</v>
       </c>
     </row>
-    <row r="255" spans="1:27" ht="13.5">
+    <row r="255" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>281</v>
       </c>
@@ -23018,7 +23023,7 @@
         <v>185.80920999999998</v>
       </c>
     </row>
-    <row r="256" spans="1:27" ht="13.5">
+    <row r="256" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>282</v>
       </c>
@@ -23102,7 +23107,7 @@
         <v>195.18413966666674</v>
       </c>
     </row>
-    <row r="257" spans="1:27" ht="13.5">
+    <row r="257" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>283</v>
       </c>
@@ -23186,7 +23191,7 @@
         <v>173.35777966666663</v>
       </c>
     </row>
-    <row r="258" spans="1:27" ht="13.5">
+    <row r="258" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>284</v>
       </c>
@@ -23270,7 +23275,7 @@
         <v>166.08602266666668</v>
       </c>
     </row>
-    <row r="259" spans="1:27" ht="13.5">
+    <row r="259" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>285</v>
       </c>
@@ -23354,7 +23359,7 @@
         <v>162.49031000000002</v>
       </c>
     </row>
-    <row r="260" spans="1:27" ht="13.5">
+    <row r="260" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>286</v>
       </c>
@@ -23438,7 +23443,7 @@
         <v>149.43834199999998</v>
       </c>
     </row>
-    <row r="261" spans="1:27" ht="13.5">
+    <row r="261" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>287</v>
       </c>
@@ -23522,7 +23527,7 @@
         <v>167.56471866666666</v>
       </c>
     </row>
-    <row r="262" spans="1:27" ht="13.5">
+    <row r="262" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>288</v>
       </c>
@@ -23606,7 +23611,7 @@
         <v>141.6008116666666</v>
       </c>
     </row>
-    <row r="263" spans="1:27" ht="13.5">
+    <row r="263" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>289</v>
       </c>
@@ -23690,7 +23695,7 @@
         <v>153.84466566666671</v>
       </c>
     </row>
-    <row r="264" spans="1:27" ht="13.5">
+    <row r="264" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>290</v>
       </c>
@@ -23774,7 +23779,7 @@
         <v>155.79787400000001</v>
       </c>
     </row>
-    <row r="265" spans="1:27" ht="13.5">
+    <row r="265" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>291</v>
       </c>
@@ -23858,7 +23863,7 @@
         <v>143.5574476666666</v>
       </c>
     </row>
-    <row r="266" spans="1:27" ht="13.5">
+    <row r="266" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>292</v>
       </c>
@@ -23942,7 +23947,7 @@
         <v>138.7816149999999</v>
       </c>
     </row>
-    <row r="267" spans="1:27" ht="13.5">
+    <row r="267" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>293</v>
       </c>
@@ -24026,7 +24031,7 @@
         <v>132.06161000000003</v>
       </c>
     </row>
-    <row r="268" spans="1:27" ht="13.5">
+    <row r="268" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>294</v>
       </c>
@@ -24110,7 +24115,7 @@
         <v>137.74607200000003</v>
       </c>
     </row>
-    <row r="269" spans="1:27" ht="13.5">
+    <row r="269" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>295</v>
       </c>
@@ -24194,7 +24199,7 @@
         <v>132.41096833333339</v>
       </c>
     </row>
-    <row r="270" spans="1:27" ht="13.5">
+    <row r="270" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>296</v>
       </c>
@@ -24278,7 +24283,7 @@
         <v>142.14581433333336</v>
       </c>
     </row>
-    <row r="271" spans="1:27" ht="13.5">
+    <row r="271" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>297</v>
       </c>
@@ -24362,7 +24367,7 @@
         <v>165.67387233333343</v>
       </c>
     </row>
-    <row r="272" spans="1:27" ht="13.5">
+    <row r="272" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>298</v>
       </c>
@@ -24446,7 +24451,7 @@
         <v>192.51832299999992</v>
       </c>
     </row>
-    <row r="273" spans="1:27" ht="13.5">
+    <row r="273" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>299</v>
       </c>
@@ -24530,7 +24535,7 @@
         <v>200.70428300000003</v>
       </c>
     </row>
-    <row r="274" spans="1:27" ht="13.5">
+    <row r="274" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>300</v>
       </c>
@@ -24614,7 +24619,7 @@
         <v>200.233428</v>
       </c>
     </row>
-    <row r="275" spans="1:27" ht="13.5">
+    <row r="275" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>301</v>
       </c>
@@ -24698,7 +24703,7 @@
         <v>194.12124233333327</v>
       </c>
     </row>
-    <row r="276" spans="1:27" ht="13.5">
+    <row r="276" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>302</v>
       </c>
@@ -24782,7 +24787,7 @@
         <v>217.27622199999996</v>
       </c>
     </row>
-    <row r="277" spans="1:27" ht="13.5">
+    <row r="277" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>303</v>
       </c>
@@ -24866,7 +24871,7 @@
         <v>225.66342866666665</v>
       </c>
     </row>
-    <row r="278" spans="1:27" ht="13.5">
+    <row r="278" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>304</v>
       </c>
@@ -24950,7 +24955,7 @@
         <v>246.85347266666676</v>
       </c>
     </row>
-    <row r="279" spans="1:27" ht="13.5">
+    <row r="279" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>305</v>
       </c>
@@ -25034,7 +25039,7 @@
         <v>267.27279000000004</v>
       </c>
     </row>
-    <row r="280" spans="1:27" ht="13.5">
+    <row r="280" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>306</v>
       </c>
@@ -25118,7 +25123,7 @@
         <v>307.61857733333335</v>
       </c>
     </row>
-    <row r="281" spans="1:27" ht="13.5">
+    <row r="281" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>307</v>
       </c>
@@ -25202,7 +25207,7 @@
         <v>295.0569349999999</v>
       </c>
     </row>
-    <row r="282" spans="1:27" ht="13.5">
+    <row r="282" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>308</v>
       </c>
@@ -25286,7 +25291,7 @@
         <v>330.71676300000007</v>
       </c>
     </row>
-    <row r="283" spans="1:27" ht="13.5">
+    <row r="283" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>309</v>
       </c>
@@ -25370,7 +25375,7 @@
         <v>291.75611233333325</v>
       </c>
     </row>
-    <row r="284" spans="1:27" ht="13.5">
+    <row r="284" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>310</v>
       </c>
@@ -25454,7 +25459,7 @@
         <v>261.59661433333332</v>
       </c>
     </row>
-    <row r="285" spans="1:27" ht="13.5">
+    <row r="285" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>311</v>
       </c>
@@ -25538,7 +25543,7 @@
         <v>187.86119166666666</v>
       </c>
     </row>
-    <row r="286" spans="1:27" ht="13.5">
+    <row r="286" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>312</v>
       </c>
@@ -25622,7 +25627,7 @@
         <v>177.92081466666659</v>
       </c>
     </row>
-    <row r="287" spans="1:27" ht="13.5">
+    <row r="287" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>313</v>
       </c>
@@ -25706,7 +25711,7 @@
         <v>159.55424833333336</v>
       </c>
     </row>
-    <row r="288" spans="1:27" ht="13.5">
+    <row r="288" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>314</v>
       </c>
@@ -25790,7 +25795,7 @@
         <v>139.36231966666668</v>
       </c>
     </row>
-    <row r="289" spans="1:27" ht="13.5">
+    <row r="289" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>315</v>
       </c>
@@ -25874,7 +25879,7 @@
         <v>183.18800933333341</v>
       </c>
     </row>
-    <row r="290" spans="1:27" ht="13.5">
+    <row r="290" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>316</v>
       </c>
@@ -25958,7 +25963,7 @@
         <v>182.16241300000004</v>
       </c>
     </row>
-    <row r="291" spans="1:27" ht="13.5">
+    <row r="291" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>317</v>
       </c>
@@ -26042,7 +26047,7 @@
         <v>169.33327166666666</v>
       </c>
     </row>
-    <row r="292" spans="1:27" ht="13.5">
+    <row r="292" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>318</v>
       </c>
@@ -26126,7 +26131,7 @@
         <v>200.44188700000004</v>
       </c>
     </row>
-    <row r="293" spans="1:27" ht="13.5">
+    <row r="293" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>319</v>
       </c>
@@ -26210,7 +26215,7 @@
         <v>211.13669199999993</v>
       </c>
     </row>
-    <row r="294" spans="1:27" ht="13.5">
+    <row r="294" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>320</v>
       </c>
@@ -26294,7 +26299,7 @@
         <v>201.35775333333333</v>
       </c>
     </row>
-    <row r="295" spans="1:27" ht="13.5">
+    <row r="295" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>321</v>
       </c>
@@ -26378,7 +26383,7 @@
         <v>187.00488166666665</v>
       </c>
     </row>
-    <row r="296" spans="1:27" ht="13.5">
+    <row r="296" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>322</v>
       </c>
@@ -26462,7 +26467,7 @@
         <v>198.25638133333337</v>
       </c>
     </row>
-    <row r="297" spans="1:27" ht="13.5">
+    <row r="297" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>323</v>
       </c>
@@ -26546,7 +26551,7 @@
         <v>182.37485133333337</v>
       </c>
     </row>
-    <row r="298" spans="1:27" ht="13.5">
+    <row r="298" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>324</v>
       </c>
@@ -26630,7 +26635,7 @@
         <v>177.39265666666662</v>
       </c>
     </row>
-    <row r="299" spans="1:27" ht="13.5">
+    <row r="299" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>325</v>
       </c>
@@ -26714,7 +26719,7 @@
         <v>178.62990200000002</v>
       </c>
     </row>
-    <row r="300" spans="1:27" ht="13.5">
+    <row r="300" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>326</v>
       </c>
@@ -26798,7 +26803,7 @@
         <v>181.16094699999996</v>
       </c>
     </row>
-    <row r="301" spans="1:27" ht="13.5">
+    <row r="301" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>327</v>
       </c>
@@ -26882,7 +26887,7 @@
         <v>175.3421743333333</v>
       </c>
     </row>
-    <row r="302" spans="1:27" ht="13.5">
+    <row r="302" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>328</v>
       </c>
@@ -26966,7 +26971,7 @@
         <v>174.21929833333334</v>
       </c>
     </row>
-    <row r="303" spans="1:27" ht="13.5">
+    <row r="303" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>329</v>
       </c>
@@ -27050,7 +27055,7 @@
         <v>178.11544700000005</v>
       </c>
     </row>
-    <row r="304" spans="1:27" ht="13.5">
+    <row r="304" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>330</v>
       </c>
@@ -27134,7 +27139,7 @@
         <v>174.72397666666669</v>
       </c>
     </row>
-    <row r="305" spans="1:27" ht="13.5">
+    <row r="305" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>331</v>
       </c>
@@ -27218,7 +27223,7 @@
         <v>190.95821933333329</v>
       </c>
     </row>
-    <row r="306" spans="1:27" ht="13.5">
+    <row r="306" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>332</v>
       </c>
@@ -27302,7 +27307,7 @@
         <v>200.71997833333342</v>
       </c>
     </row>
-    <row r="307" spans="1:27" ht="13.5">
+    <row r="307" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>333</v>
       </c>
@@ -27386,7 +27391,7 @@
         <v>180.06464899999992</v>
       </c>
     </row>
-    <row r="308" spans="1:27" ht="13.5">
+    <row r="308" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>334</v>
       </c>
@@ -27470,7 +27475,7 @@
         <v>195.06978300000003</v>
       </c>
     </row>
-    <row r="309" spans="1:27" ht="13.5">
+    <row r="309" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>335</v>
       </c>
@@ -27554,7 +27559,7 @@
         <v>167.62800400000006</v>
       </c>
     </row>
-    <row r="310" spans="1:27" ht="13.5">
+    <row r="310" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>336</v>
       </c>
@@ -27638,7 +27643,7 @@
         <v>174.20361633333346</v>
       </c>
     </row>
-    <row r="311" spans="1:27" ht="13.5">
+    <row r="311" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>337</v>
       </c>
@@ -27722,7 +27727,7 @@
         <v>176.27118866666669</v>
       </c>
     </row>
-    <row r="312" spans="1:27" ht="13.5">
+    <row r="312" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>338</v>
       </c>
@@ -27806,7 +27811,7 @@
         <v>183.48463800000002</v>
       </c>
     </row>
-    <row r="313" spans="1:27" ht="13.5">
+    <row r="313" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>339</v>
       </c>
@@ -27890,7 +27895,7 @@
         <v>180.43774033333332</v>
       </c>
     </row>
-    <row r="314" spans="1:27" ht="13.5">
+    <row r="314" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>340</v>
       </c>
@@ -27974,7 +27979,7 @@
         <v>181.330285</v>
       </c>
     </row>
-    <row r="315" spans="1:27" ht="13.5">
+    <row r="315" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>341</v>
       </c>
@@ -28058,7 +28063,7 @@
         <v>179.49694966666678</v>
       </c>
     </row>
-    <row r="316" spans="1:27" ht="13.5">
+    <row r="316" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>342</v>
       </c>
@@ -28142,7 +28147,7 @@
         <v>173.6386163333334</v>
       </c>
     </row>
-    <row r="317" spans="1:27" ht="13.5">
+    <row r="317" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>343</v>
       </c>
@@ -28226,7 +28231,7 @@
         <v>164.52559833333333</v>
       </c>
     </row>
-    <row r="318" spans="1:27" ht="13.5">
+    <row r="318" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>344</v>
       </c>
@@ -28310,7 +28315,7 @@
         <v>179.02610733333327</v>
       </c>
     </row>
-    <row r="319" spans="1:27" ht="13.5">
+    <row r="319" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>345</v>
       </c>
@@ -28394,7 +28399,7 @@
         <v>156.93539466666664</v>
       </c>
     </row>
-    <row r="320" spans="1:27" ht="13.5">
+    <row r="320" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>346</v>
       </c>
@@ -28478,7 +28483,7 @@
         <v>179.65544733333334</v>
       </c>
     </row>
-    <row r="321" spans="1:27" ht="13.5">
+    <row r="321" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>347</v>
       </c>
@@ -28562,7 +28567,7 @@
         <v>153.97608699999998</v>
       </c>
     </row>
-    <row r="322" spans="1:27" ht="13.5">
+    <row r="322" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>348</v>
       </c>
@@ -28646,7 +28651,7 @@
         <v>157.14407833333331</v>
       </c>
     </row>
-    <row r="323" spans="1:27" ht="13.5">
+    <row r="323" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>349</v>
       </c>
@@ -28730,7 +28735,7 @@
         <v>124.26897499999997</v>
       </c>
     </row>
-    <row r="324" spans="1:27" ht="13.5">
+    <row r="324" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>350</v>
       </c>
@@ -28814,7 +28819,7 @@
         <v>162.51498166666678</v>
       </c>
     </row>
-    <row r="325" spans="1:27" ht="13.5">
+    <row r="325" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>351</v>
       </c>
@@ -28898,7 +28903,7 @@
         <v>164.22366466666662</v>
       </c>
     </row>
-    <row r="326" spans="1:27" ht="13.5">
+    <row r="326" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>352</v>
       </c>
@@ -28982,7 +28987,7 @@
         <v>172.82452200000009</v>
       </c>
     </row>
-    <row r="327" spans="1:27" ht="13.5">
+    <row r="327" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>353</v>
       </c>
@@ -29066,7 +29071,7 @@
         <v>162.33898466666673</v>
       </c>
     </row>
-    <row r="328" spans="1:27" ht="13.5">
+    <row r="328" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>354</v>
       </c>
@@ -29150,7 +29155,7 @@
         <v>167.85672333333335</v>
       </c>
     </row>
-    <row r="329" spans="1:27" ht="13.5">
+    <row r="329" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>355</v>
       </c>
@@ -29234,7 +29239,7 @@
         <v>162.87641233333332</v>
       </c>
     </row>
-    <row r="330" spans="1:27" ht="13.5">
+    <row r="330" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>356</v>
       </c>
@@ -29318,7 +29323,7 @@
         <v>163.475022</v>
       </c>
     </row>
-    <row r="331" spans="1:27" ht="13.5">
+    <row r="331" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>357</v>
       </c>
@@ -29402,7 +29407,7 @@
         <v>164.86193466666666</v>
       </c>
     </row>
-    <row r="332" spans="1:27" ht="13.5">
+    <row r="332" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>358</v>
       </c>
@@ -29486,7 +29491,7 @@
         <v>167.82131466666672</v>
       </c>
     </row>
-    <row r="333" spans="1:27" ht="13.5">
+    <row r="333" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>359</v>
       </c>
@@ -29570,7 +29575,7 @@
         <v>155.52189866666666</v>
       </c>
     </row>
-    <row r="334" spans="1:27" ht="13.5">
+    <row r="334" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>360</v>
       </c>
@@ -29654,7 +29659,7 @@
         <v>159.08537299999998</v>
       </c>
     </row>
-    <row r="335" spans="1:27" ht="13.5">
+    <row r="335" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>361</v>
       </c>
@@ -29738,7 +29743,7 @@
         <v>155.13086300000003</v>
       </c>
     </row>
-    <row r="336" spans="1:27" ht="13.5">
+    <row r="336" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>362</v>
       </c>
@@ -29822,7 +29827,7 @@
         <v>155.76363899999998</v>
       </c>
     </row>
-    <row r="337" spans="1:27" ht="13.5">
+    <row r="337" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>363</v>
       </c>
@@ -29906,7 +29911,7 @@
         <v>155.65633433333343</v>
       </c>
     </row>
-    <row r="338" spans="1:27" ht="13.5">
+    <row r="338" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>364</v>
       </c>
@@ -29990,7 +29995,7 @@
         <v>173.5718149999999</v>
       </c>
     </row>
-    <row r="339" spans="1:27" ht="13.5">
+    <row r="339" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>365</v>
       </c>
@@ -30074,7 +30079,7 @@
         <v>191.05650333333335</v>
       </c>
     </row>
-    <row r="340" spans="1:27" ht="13.5">
+    <row r="340" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>366</v>
       </c>
@@ -30158,7 +30163,7 @@
         <v>195.52418099999991</v>
       </c>
     </row>
-    <row r="341" spans="1:27" ht="13.5">
+    <row r="341" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>367</v>
       </c>
@@ -30242,7 +30247,7 @@
         <v>199.12985766666665</v>
       </c>
     </row>
-    <row r="342" spans="1:27" ht="13.5">
+    <row r="342" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>368</v>
       </c>
@@ -30326,7 +30331,7 @@
         <v>220.26721300000005</v>
       </c>
     </row>
-    <row r="343" spans="1:27" ht="13.5">
+    <row r="343" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>369</v>
       </c>
@@ -30410,7 +30415,7 @@
         <v>221.17724233333328</v>
       </c>
     </row>
-    <row r="344" spans="1:27" ht="13.5">
+    <row r="344" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>370</v>
       </c>
@@ -30494,7 +30499,7 @@
         <v>202.77248100000006</v>
       </c>
     </row>
-    <row r="345" spans="1:27" ht="13.5">
+    <row r="345" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>371</v>
       </c>
@@ -30578,7 +30583,7 @@
         <v>209.036653</v>
       </c>
     </row>
-    <row r="346" spans="1:27" ht="13.5">
+    <row r="346" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>372</v>
       </c>
@@ -30662,7 +30667,7 @@
         <v>199.31409800000003</v>
       </c>
     </row>
-    <row r="347" spans="1:27" ht="13.5">
+    <row r="347" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>373</v>
       </c>
@@ -30746,7 +30751,7 @@
         <v>208.50018099999991</v>
       </c>
     </row>
-    <row r="348" spans="1:27" ht="13.5">
+    <row r="348" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>374</v>
       </c>
@@ -30830,7 +30835,7 @@
         <v>177.19208333333327</v>
       </c>
     </row>
-    <row r="349" spans="1:27" ht="13.5">
+    <row r="349" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>375</v>
       </c>
@@ -30914,7 +30919,7 @@
         <v>180.69230033333341</v>
       </c>
     </row>
-    <row r="350" spans="1:27" ht="13.5">
+    <row r="350" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>376</v>
       </c>
@@ -30998,7 +31003,7 @@
         <v>189.01694466666663</v>
       </c>
     </row>
-    <row r="351" spans="1:27" ht="13.5">
+    <row r="351" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>377</v>
       </c>
@@ -31082,7 +31087,7 @@
         <v>152.59006766666667</v>
       </c>
     </row>
-    <row r="352" spans="1:27" ht="13.5">
+    <row r="352" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>378</v>
       </c>
@@ -31166,7 +31171,7 @@
         <v>177.76952466666663</v>
       </c>
     </row>
-    <row r="353" spans="1:27" ht="13.5">
+    <row r="353" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
         <v>379</v>
       </c>
@@ -31250,7 +31255,7 @@
         <v>160.0125633333333</v>
       </c>
     </row>
-    <row r="354" spans="1:27" ht="13.5">
+    <row r="354" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>380</v>
       </c>
@@ -31334,7 +31339,7 @@
         <v>170.30077900000003</v>
       </c>
     </row>
-    <row r="355" spans="1:27" ht="13.5">
+    <row r="355" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
         <v>381</v>
       </c>
@@ -31418,7 +31423,7 @@
         <v>162.81030433333333</v>
       </c>
     </row>
-    <row r="356" spans="1:27" ht="13.5">
+    <row r="356" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
         <v>382</v>
       </c>
@@ -31502,7 +31507,7 @@
         <v>155.50878066666669</v>
       </c>
     </row>
-    <row r="357" spans="1:27" ht="13.5">
+    <row r="357" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>383</v>
       </c>
@@ -31586,7 +31591,7 @@
         <v>110.626795</v>
       </c>
     </row>
-    <row r="358" spans="1:27" ht="13.5">
+    <row r="358" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>384</v>
       </c>
@@ -31670,7 +31675,7 @@
         <v>181.9196553333334</v>
       </c>
     </row>
-    <row r="359" spans="1:27" ht="13.5">
+    <row r="359" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
         <v>385</v>
       </c>
@@ -31754,7 +31759,7 @@
         <v>194.86233166666673</v>
       </c>
     </row>
-    <row r="360" spans="1:27" ht="13.5">
+    <row r="360" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>386</v>
       </c>
@@ -31838,7 +31843,7 @@
         <v>161.50995766666662</v>
       </c>
     </row>
-    <row r="361" spans="1:27" ht="13.5">
+    <row r="361" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>387</v>
       </c>
@@ -31922,7 +31927,7 @@
         <v>161.14318566666668</v>
       </c>
     </row>
-    <row r="362" spans="1:27" ht="13.5">
+    <row r="362" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>388</v>
       </c>
@@ -32006,7 +32011,7 @@
         <v>142.72206400000002</v>
       </c>
     </row>
-    <row r="363" spans="1:27" ht="13.5">
+    <row r="363" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>389</v>
       </c>
@@ -32090,7 +32095,7 @@
         <v>140.77445633333329</v>
       </c>
     </row>
-    <row r="364" spans="1:27" ht="13.5">
+    <row r="364" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
         <v>390</v>
       </c>
@@ -32174,7 +32179,7 @@
         <v>148.45901500000002</v>
       </c>
     </row>
-    <row r="365" spans="1:27" ht="13.5">
+    <row r="365" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
         <v>391</v>
       </c>
@@ -32258,7 +32263,7 @@
         <v>155.96261866666663</v>
       </c>
     </row>
-    <row r="366" spans="1:27" ht="13.5">
+    <row r="366" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>392</v>
       </c>
@@ -32342,7 +32347,7 @@
         <v>166.52404266666665</v>
       </c>
     </row>
-    <row r="367" spans="1:27" ht="13.5">
+    <row r="367" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>393</v>
       </c>
@@ -32426,7 +32431,7 @@
         <v>159.13936599999994</v>
       </c>
     </row>
-    <row r="368" spans="1:27" ht="13.5">
+    <row r="368" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>394</v>
       </c>
@@ -32510,12 +32515,9 @@
         <v>156.80717133333334</v>
       </c>
     </row>
-    <row r="369" spans="27:27" ht="409.6" hidden="1" customHeight="1"/>
-    <row r="370" spans="27:27" ht="12.95" customHeight="1">
-      <c r="AA370" s="7">
-        <f>AVERAGE(AA4:AA368)</f>
-        <v>224.98384610958919</v>
-      </c>
+    <row r="369" spans="27:27" ht="409.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" spans="27:27" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA370" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -32667,6 +32669,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <M_x00e9_trica xmlns="1053b607-01f4-49d3-996a-42706195cb59" xsi:nil="true"/>
+    <Descripci_x00f3_n_x0020_Contenido xmlns="1053b607-01f4-49d3-996a-42706195cb59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -32675,23 +32686,37 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <M_x00e9_trica xmlns="1053b607-01f4-49d3-996a-42706195cb59" xsi:nil="true"/>
-    <Descripci_x00f3_n_x0020_Contenido xmlns="1053b607-01f4-49d3-996a-42706195cb59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45788326-3E74-4564-89D2-9C5DE9AA2537}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45788326-3E74-4564-89D2-9C5DE9AA2537}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1053b607-01f4-49d3-996a-42706195cb59"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85C1DD30-9D9D-4006-97AC-F64D0A088E59}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE01FD50-C51B-49BB-94C1-539785AD6ED1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1053b607-01f4-49d3-996a-42706195cb59"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE01FD50-C51B-49BB-94C1-539785AD6ED1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85C1DD30-9D9D-4006-97AC-F64D0A088E59}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>